--- a/medicine/Sexualité et sexologie/Gérard_Zwang/Gérard_Zwang.xlsx
+++ b/medicine/Sexualité et sexologie/Gérard_Zwang/Gérard_Zwang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Zwang</t>
+          <t>Gérard_Zwang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Zwang, né à Paris le 16 juin 1930, est un chirurgien-urologue français, élève du professeur Léger et du professeur Aboulker, auteur d'ouvrages consacrés à la sexologie, dont Le Sexe de la femme, qui eurent un certain écho dans les médias durant les années 1970. 
 Il est l'un des fondateurs de la Société française de sexologie clinique.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Zwang</t>
+          <t>Gérard_Zwang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Zwang fut nommé interne des hôpitaux de Paris en 1956 et chef de clinique chirurgicale à la Faculté de médecine de Paris en 1962. Il s'installa en Seine-et-Marne en 1965. Il pratiqua la chirurgie viscérale et l'urologie.
-Son premier ouvrage publié, Le Sexe de la femme (1967), rétablit de façon scientifique l'anatomie et la physiologie des organes génitaux féminins, un chapitre qui a longtemps donné lieu à une iconographie et à une interprétation biologique erronées. Fondé sur des documents photographiques démonstratifs, son Atlas du sexe de la femme illustre le texte publié en 1967 : première description anatomique exacte (et donc rejoignant l'expression poétique) de l'origine du monde[1]. Cet ouvrage fondamental figure désormais dans la bibliothèque du musée de l'Homme. 
+Son premier ouvrage publié, Le Sexe de la femme (1967), rétablit de façon scientifique l'anatomie et la physiologie des organes génitaux féminins, un chapitre qui a longtemps donné lieu à une iconographie et à une interprétation biologique erronées. Fondé sur des documents photographiques démonstratifs, son Atlas du sexe de la femme illustre le texte publié en 1967 : première description anatomique exacte (et donc rejoignant l'expression poétique) de l'origine du monde. Cet ouvrage fondamental figure désormais dans la bibliothèque du musée de l'Homme. 
 Dans le même temps, Gérard Zwang a participé activement à l'élucidation étiologique et au traitement des troubles de l'érection. Quoique rédigé au début des années 1970, son livre intitulé La Fonction érotique constitue, aujourd'hui encore, une référence incontournable en matière de sexologie. 
 L'étude du comportement sexuel l'a conduit à une vision scientifique plus large des différents comportements humains (éthologie), envisagés sous l'angle de la biologie et de la paléo-anthropologie.
-Il est le président d'honneur de l'Association contre la mutilation des enfants[2],[Depuis quand ?] et a participé à la première conférence de presse dénonçant les mutilations sexuelles féminines (clitoridectomie et infibulation) à Genève en 1977 sous les auspices de Terre des hommes en compagnie de Benoîte Groult. Il a également participé au 4e Symposium international sur les mutilations sexuelles, du 9 au 11 août 1996 à l'université de Lausanne, organisé par l'association Nocirc ainsi qu'aux Rencontres internationales « Procréation et droits de l'enfant » tenues à Marseille du 16 au 18 septembre 2003 sous l'égide de l'Observatoire international du droit de la bioéthique et de la médecine.
+Il est le président d'honneur de l'Association contre la mutilation des enfants,[Depuis quand ?] et a participé à la première conférence de presse dénonçant les mutilations sexuelles féminines (clitoridectomie et infibulation) à Genève en 1977 sous les auspices de Terre des hommes en compagnie de Benoîte Groult. Il a également participé au 4e Symposium international sur les mutilations sexuelles, du 9 au 11 août 1996 à l'université de Lausanne, organisé par l'association Nocirc ainsi qu'aux Rencontres internationales « Procréation et droits de l'enfant » tenues à Marseille du 16 au 18 septembre 2003 sous l'égide de l'Observatoire international du droit de la bioéthique et de la médecine.
 Par ailleurs, il est compositeur (inscrit à la SACEM), instrumentiste (violon, piano et orgue) et critique. Il possède l'oreille absolue et fait partie du Groupement des écrivains médecins. Grand amateur de Mozart, il a toujours manifesté son hostilité à l'égard du style baroque « enfreignant » le diapason, et « infligé » selon ses termes, aux compositeurs fondateurs du premier classicisme occidental (Bach, Rameau, Haendel, Vivaldi, Purcell, etc.).
-Il a été « croqué » par Pierre Desproges dans Le Tribunal des flagrants délires. Il est parfois considéré comme un proche de la Nouvelle Droite car il écrit de temps à autre dans Éléments[3]. Il est aussi membre du comité de patronage de Nouvelle École dès l'origine (1970)[4]. Marqué par ses critiques du monothéisme, du freudisme et du marxisme, c'est en fait un libéral convaincu, comme en témoignent ses ouvrages d'éthologie (Les Comportements humains)[5].
+Il a été « croqué » par Pierre Desproges dans Le Tribunal des flagrants délires. Il est parfois considéré comme un proche de la Nouvelle Droite car il écrit de temps à autre dans Éléments. Il est aussi membre du comité de patronage de Nouvelle École dès l'origine (1970). Marqué par ses critiques du monothéisme, du freudisme et du marxisme, c'est en fait un libéral convaincu, comme en témoignent ses ouvrages d'éthologie (Les Comportements humains).
 Marié à sept reprises, il est père de cinq fils et filles.
 </t>
         </is>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Zwang</t>
+          <t>Gérard_Zwang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Années 1960
 Le Sexe de la femme, La Jeune Parque, 1967, La Musardine, 1996
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Zwang</t>
+          <t>Gérard_Zwang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Récompenses et prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Médecine et culture (1988), décerné par le Conseil économique et social
 Prix Information des médecins (1989), décerné par le Medec</t>
